--- a/database/industries/kaghaz/chekapa/cashflow/yearly.xlsx
+++ b/database/industries/kaghaz/chekapa/cashflow/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16807C53-81DA-4929-A836-765F0EFE4731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/08</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/08</t>
   </si>
   <si>
@@ -51,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/08</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1397-11-02 (9)</t>
-  </si>
-  <si>
     <t>1398-12-14 (9)</t>
   </si>
   <si>
@@ -66,7 +64,10 @@
     <t>1400-12-09 (9)</t>
   </si>
   <si>
-    <t>1401-06-30 (7)</t>
+    <t>1401-11-24 (8)</t>
+  </si>
+  <si>
+    <t>1401-11-24</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -806,20 +841,20 @@
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>273852</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="E12" s="15">
+        <v>-30932</v>
+      </c>
       <c r="F12" s="15">
-        <v>-30932</v>
+        <v>1149672</v>
       </c>
       <c r="G12" s="15">
-        <v>1149672</v>
+        <v>1350672</v>
       </c>
       <c r="H12" s="15">
-        <v>1350672</v>
+        <v>2605890</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -828,19 +863,19 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-104702</v>
+        <v>-80797</v>
       </c>
       <c r="E13" s="11">
-        <v>-80797</v>
+        <v>-163156</v>
       </c>
       <c r="F13" s="11">
-        <v>-163156</v>
+        <v>-55632</v>
       </c>
       <c r="G13" s="11">
-        <v>-55632</v>
+        <v>-176550</v>
       </c>
       <c r="H13" s="11">
-        <v>-176550</v>
+        <v>-261800</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -849,19 +884,19 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>169150</v>
+        <v>1214950</v>
       </c>
       <c r="E14" s="17">
-        <v>1214950</v>
+        <v>-194088</v>
       </c>
       <c r="F14" s="17">
-        <v>-194088</v>
+        <v>1094040</v>
       </c>
       <c r="G14" s="17">
-        <v>1094040</v>
+        <v>1174122</v>
       </c>
       <c r="H14" s="17">
-        <v>1174122</v>
+        <v>2344090</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -881,19 +916,19 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>117316</v>
+        <v>0</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>152735</v>
       </c>
       <c r="G16" s="15">
-        <v>152735</v>
+        <v>0</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -902,19 +937,19 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-231692</v>
+        <v>-440923</v>
       </c>
       <c r="E17" s="11">
-        <v>-440923</v>
+        <v>-185370</v>
       </c>
       <c r="F17" s="11">
-        <v>-185370</v>
+        <v>-373024</v>
       </c>
       <c r="G17" s="11">
-        <v>-373024</v>
+        <v>-11173</v>
       </c>
       <c r="H17" s="11">
-        <v>-11173</v>
+        <v>-1250102</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -925,8 +960,8 @@
       <c r="D18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>18</v>
+      <c r="E18" s="15">
+        <v>0</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -965,19 +1000,19 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-410</v>
       </c>
       <c r="E20" s="15">
-        <v>-410</v>
+        <v>-1688</v>
       </c>
       <c r="F20" s="15">
-        <v>-1688</v>
+        <v>-1239</v>
       </c>
       <c r="G20" s="15">
-        <v>-1239</v>
+        <v>-1722</v>
       </c>
       <c r="H20" s="15">
-        <v>-1722</v>
+        <v>-2347</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -995,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>-1148379</v>
       </c>
       <c r="H21" s="11">
-        <v>-1148379</v>
+        <v>-510513</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1049,19 +1084,19 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-15129</v>
+        <v>-551656</v>
       </c>
       <c r="E24" s="15">
-        <v>-551656</v>
+        <v>-249400</v>
       </c>
       <c r="F24" s="15">
-        <v>-249400</v>
+        <v>-402237</v>
       </c>
       <c r="G24" s="15">
-        <v>-402237</v>
+        <v>-39</v>
       </c>
       <c r="H24" s="15">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1156,8 +1191,8 @@
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>18</v>
+      <c r="E29" s="11">
+        <v>0</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -1196,19 +1231,19 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>629</v>
+        <v>1118</v>
       </c>
       <c r="E31" s="11">
-        <v>1118</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11">
-        <v>127</v>
+        <v>6553</v>
       </c>
       <c r="G31" s="11">
-        <v>6553</v>
+        <v>41204</v>
       </c>
       <c r="H31" s="11">
-        <v>41204</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1217,19 +1252,19 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-128876</v>
+        <v>-992989</v>
       </c>
       <c r="E32" s="17">
-        <v>-992989</v>
+        <v>-436331</v>
       </c>
       <c r="F32" s="17">
-        <v>-436331</v>
+        <v>-617212</v>
       </c>
       <c r="G32" s="17">
-        <v>-617212</v>
+        <v>-1120109</v>
       </c>
       <c r="H32" s="17">
-        <v>-1120109</v>
+        <v>-1736181</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1238,19 +1273,19 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>40274</v>
+        <v>-25075</v>
       </c>
       <c r="E33" s="19">
-        <v>-25075</v>
+        <v>-630419</v>
       </c>
       <c r="F33" s="19">
-        <v>-630419</v>
+        <v>476828</v>
       </c>
       <c r="G33" s="19">
-        <v>476828</v>
+        <v>54013</v>
       </c>
       <c r="H33" s="19">
-        <v>54013</v>
+        <v>607909</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1318,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="15">
-        <v>0</v>
+        <v>54237</v>
       </c>
       <c r="G37" s="15">
-        <v>54237</v>
+        <v>1313429</v>
       </c>
       <c r="H37" s="15">
-        <v>1313429</v>
+        <v>59487</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1339,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>-428254</v>
       </c>
       <c r="G38" s="11">
-        <v>-428254</v>
+        <v>-1847494</v>
       </c>
       <c r="H38" s="11">
-        <v>-1847494</v>
+        <v>-151172</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1354,19 +1389,19 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>445379</v>
+        <v>143448</v>
       </c>
       <c r="E39" s="15">
-        <v>143448</v>
+        <v>1491447</v>
       </c>
       <c r="F39" s="15">
-        <v>1491447</v>
+        <v>3963399</v>
       </c>
       <c r="G39" s="15">
-        <v>3963399</v>
+        <v>7673320</v>
       </c>
       <c r="H39" s="15">
-        <v>7673320</v>
+        <v>8927761</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1375,19 +1410,19 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-328816</v>
+        <v>-130889</v>
       </c>
       <c r="E40" s="11">
-        <v>-130889</v>
+        <v>-506981</v>
       </c>
       <c r="F40" s="11">
-        <v>-506981</v>
+        <v>-2892259</v>
       </c>
       <c r="G40" s="11">
-        <v>-2892259</v>
+        <v>-5890586</v>
       </c>
       <c r="H40" s="11">
-        <v>-5890586</v>
+        <v>-8451553</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1396,19 +1431,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-61987</v>
+        <v>-60467</v>
       </c>
       <c r="E41" s="15">
-        <v>-60467</v>
+        <v>-95056</v>
       </c>
       <c r="F41" s="15">
-        <v>-95056</v>
+        <v>-323563</v>
       </c>
       <c r="G41" s="15">
-        <v>-323563</v>
+        <v>-329876</v>
       </c>
       <c r="H41" s="15">
-        <v>-329876</v>
+        <v>-591200</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1419,8 +1454,8 @@
       <c r="D42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>18</v>
+      <c r="E42" s="11">
+        <v>0</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -1440,8 +1475,8 @@
       <c r="D43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>18</v>
+      <c r="E43" s="15">
+        <v>0</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
@@ -1461,8 +1496,8 @@
       <c r="D44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>18</v>
+      <c r="E44" s="11">
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
@@ -1482,8 +1517,8 @@
       <c r="D45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>18</v>
+      <c r="E45" s="15">
+        <v>0</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
@@ -1503,8 +1538,8 @@
       <c r="D46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>18</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -1524,8 +1559,8 @@
       <c r="D47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>18</v>
+      <c r="E47" s="15">
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -1545,8 +1580,8 @@
       <c r="D48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>18</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -1566,8 +1601,8 @@
       <c r="D49" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>18</v>
+      <c r="E49" s="15">
+        <v>0</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
@@ -1585,19 +1620,19 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-83906</v>
+        <v>-106890</v>
       </c>
       <c r="E50" s="11">
-        <v>-106890</v>
+        <v>-144330</v>
       </c>
       <c r="F50" s="11">
-        <v>-144330</v>
+        <v>-430194</v>
       </c>
       <c r="G50" s="11">
-        <v>-430194</v>
+        <v>-661152</v>
       </c>
       <c r="H50" s="11">
-        <v>-661152</v>
+        <v>-664779</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1606,19 +1641,19 @@
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-29330</v>
+        <v>12559</v>
       </c>
       <c r="E51" s="17">
-        <v>12559</v>
+        <v>745080</v>
       </c>
       <c r="F51" s="17">
-        <v>745080</v>
+        <v>-56634</v>
       </c>
       <c r="G51" s="17">
-        <v>-56634</v>
+        <v>257641</v>
       </c>
       <c r="H51" s="17">
-        <v>257641</v>
+        <v>-871456</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1627,19 +1662,19 @@
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>10944</v>
+        <v>-12516</v>
       </c>
       <c r="E52" s="19">
-        <v>-12516</v>
+        <v>114661</v>
       </c>
       <c r="F52" s="19">
-        <v>114661</v>
+        <v>420194</v>
       </c>
       <c r="G52" s="19">
-        <v>420194</v>
+        <v>311654</v>
       </c>
       <c r="H52" s="19">
-        <v>311654</v>
+        <v>-263547</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1648,19 +1683,19 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>1507</v>
+        <v>9738</v>
       </c>
       <c r="E53" s="15">
-        <v>9738</v>
+        <v>11441</v>
       </c>
       <c r="F53" s="15">
-        <v>11441</v>
+        <v>126102</v>
       </c>
       <c r="G53" s="15">
-        <v>126102</v>
+        <v>546296</v>
       </c>
       <c r="H53" s="15">
-        <v>546296</v>
+        <v>858462</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1669,19 +1704,19 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>-2713</v>
+        <v>14219</v>
       </c>
       <c r="E54" s="11">
-        <v>14219</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="H54" s="11">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -1690,19 +1725,19 @@
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>9738</v>
+        <v>11441</v>
       </c>
       <c r="E55" s="17">
-        <v>11441</v>
+        <v>126102</v>
       </c>
       <c r="F55" s="17">
-        <v>126102</v>
+        <v>546296</v>
       </c>
       <c r="G55" s="17">
-        <v>546296</v>
+        <v>858462</v>
       </c>
       <c r="H55" s="17">
-        <v>858462</v>
+        <v>594915</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -1717,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>7002469</v>
       </c>
       <c r="G56" s="11">
-        <v>7002469</v>
+        <v>400657</v>
       </c>
       <c r="H56" s="11">
-        <v>400657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
